--- a/Data/Transitions/19321937Translation.xlsx
+++ b/Data/Transitions/19321937Translation.xlsx
@@ -64,7 +64,7 @@
     <t>{13.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 1.0, 178.0: 0.00016231131309852296, 623.0: 0.0007625438462711606, 696.0: 0.0029159241859711645, 492.0: 2.3536607779139445e-05}</t>
+    <t>{14.0: 1.0, 178.0: 0.00016329196603527107, 623.0: 0.0007645259938837921, 696.0: 0.002995008319467554, 492.0: 2.403581579339233e-05}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -100,7 +100,7 @@
     <t>{43.0: 1.0}</t>
   </si>
   <si>
-    <t>{44.0: 0.9798798798798799}</t>
+    <t>{44.0: 0.9800980246546859}</t>
   </si>
   <si>
     <t>{45.0: 1.0}</t>
@@ -145,7 +145,7 @@
     <t>{70.0: 1.0}</t>
   </si>
   <si>
-    <t>{71.0: 0.9908461157842652}</t>
+    <t>{71.0: 0.9911641791044776}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
@@ -157,13 +157,13 @@
     <t>{74.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 1.0, 917.0: 0.052093120367470505}</t>
+    <t>{75.0: 1.0, 917.0: 0.05246556618652087}</t>
   </si>
   <si>
     <t>{76.0: 1.0}</t>
   </si>
   <si>
-    <t>{77.0: 1.0, 85.0: 0.0009282896263634254}</t>
+    <t>{77.0: 1.0, 85.0: 0.0009250693802035153}</t>
   </si>
   <si>
     <t>{78.0: 1.0}</t>
@@ -175,7 +175,7 @@
     <t>{80.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 1.0, 172.0: 0.0017468944099378882}</t>
+    <t>{81.0: 1.0, 172.0: 0.0017377872176095772}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
@@ -187,7 +187,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9990717103736366}</t>
+    <t>{85.0: 0.9990749306197965}</t>
   </si>
   <si>
     <t>{86.0: 1.0}</t>
@@ -205,10 +205,10 @@
     <t>{90.0: 1.0}</t>
   </si>
   <si>
-    <t>{91.0: 1.0, 92.0: 0.0019358061696015986}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.9596602972399151}</t>
+    <t>{91.0: 1.0, 92.0: 0.0019024240564590364}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.9603559374041117}</t>
   </si>
   <si>
     <t>{93.0: 1.0}</t>
@@ -226,7 +226,7 @@
     <t>{97.0: 1.0}</t>
   </si>
   <si>
-    <t>{98.0: 0.44695487535500156}</t>
+    <t>{98.0: 0.4517299630857786}</t>
   </si>
   <si>
     <t>{99.0: 1.0}</t>
@@ -244,13 +244,13 @@
     <t>{103.0: 1.0}</t>
   </si>
   <si>
-    <t>{104.0: 1.0, 92.0: 0.03840389659048333}</t>
+    <t>{104.0: 1.0, 92.0: 0.03774163853942927}</t>
   </si>
   <si>
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 1.0, 543.0: 0.0010925976509150504}</t>
+    <t>{107.0: 1.0, 543.0: 0.0011476115334959117}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
@@ -271,10 +271,10 @@
     <t>{141.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 1.0, 44.0: 0.02012012012012012}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9989884514878192}</t>
+    <t>{142.0: 1.0, 44.0: 0.019901975345314123}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9989927816014773}</t>
   </si>
   <si>
     <t>{145.0: 1.0}</t>
@@ -313,13 +313,13 @@
     <t>{165.0: 1.0}</t>
   </si>
   <si>
-    <t>{166.0: 1.0, 893.0: 0.002105263157894737}</t>
+    <t>{166.0: 1.0, 893.0: 0.002254791431792559}</t>
   </si>
   <si>
     <t>{167.0: 1.0}</t>
   </si>
   <si>
-    <t>{168.0: 0.9984929829518696}</t>
+    <t>{168.0: 0.9984805318138652}</t>
   </si>
   <si>
     <t>{169.0: 1.0}</t>
@@ -328,16 +328,16 @@
     <t>{170.0: 1.0}</t>
   </si>
   <si>
-    <t>{171.0: 0.9721745784618008}</t>
-  </si>
-  <si>
-    <t>{172.0: 0.9982531055900621}</t>
-  </si>
-  <si>
-    <t>{173.0: 1.0, 404.0: 0.0029191753329684362}</t>
-  </si>
-  <si>
-    <t>{174.0: 1.0, 502.0: 0.006638636866563399}</t>
+    <t>{171.0: 0.9725986282292154}</t>
+  </si>
+  <si>
+    <t>{172.0: 0.9982622127823905}</t>
+  </si>
+  <si>
+    <t>{173.0: 1.0, 404.0: 0.002955665024630542}</t>
+  </si>
+  <si>
+    <t>{174.0: 1.0, 502.0: 0.0066181336863004635}</t>
   </si>
   <si>
     <t>{175.0: 1.0}</t>
@@ -349,7 +349,7 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.9998376886869015}</t>
+    <t>{178.0: 0.9998367080339647}</t>
   </si>
   <si>
     <t>{179.0: 1.0}</t>
@@ -361,22 +361,22 @@
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.9977983777520278}</t>
-  </si>
-  <si>
-    <t>{183.0: 1.0, 182.0: 0.0012746234067207416}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.997979117547996, 171.0: 0.003246420314365801, 593.0: 0.0009517252694525996, 778.0: 0.0005968011458582001}</t>
+    <t>{182.0: 0.9977896696137738}</t>
+  </si>
+  <si>
+    <t>{183.0: 1.0, 182.0: 0.0012796649604467194}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9979626485568761, 171.0: 0.0031972008545582166, 593.0: 0.0009514373615758185, 778.0: 0.0005811250581125058}</t>
   </si>
   <si>
     <t>{185.0: 1.0}</t>
   </si>
   <si>
-    <t>{202.0: 0.9947134446713926}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.8504763219660362}</t>
+    <t>{202.0: 0.994717887154862}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.8511544804837823}</t>
   </si>
   <si>
     <t>{204.0: 1.0}</t>
@@ -415,7 +415,7 @@
     <t>{215.0: 1.0}</t>
   </si>
   <si>
-    <t>{265.0: 0.3432385374347069}</t>
+    <t>{265.0: 0.25544229440221145}</t>
   </si>
   <si>
     <t>{217.0: 1.0}</t>
@@ -430,10 +430,10 @@
     <t>{221.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 1.0, 490.0: 0.002387696028954705, 503.0: 0.0014675052410901468}</t>
-  </si>
-  <si>
-    <t>{223.0: 0.9808052434456929}</t>
+    <t>{222.0: 1.0, 490.0: 0.0023962824030009516, 503.0: 0.0014743049705139006}</t>
+  </si>
+  <si>
+    <t>{223.0: 0.9809390980939098}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
@@ -478,10 +478,13 @@
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.0005244755244755245}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.9994755244755245}</t>
+    <t>{240.0: 1.0, 241.0: 0.0005183137525915688}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.9994816862474084}</t>
+  </si>
+  <si>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -490,7 +493,7 @@
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.9990600241708071}</t>
+    <t>{246.0: 0.9990544373902472}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -499,7 +502,7 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.9057835330760996}</t>
+    <t>{249.0: 0.904978210564596}</t>
   </si>
   <si>
     <t>{250.0: 1.0}</t>
@@ -547,7 +550,7 @@
     <t>{264.0: 1.0}</t>
   </si>
   <si>
-    <t>{265.0: 0.6567614625652931}</t>
+    <t>{265.0: 0.7445577055977886}</t>
   </si>
   <si>
     <t>{267.0: 1.0}</t>
@@ -562,7 +565,7 @@
     <t>{271.0: 1.0}</t>
   </si>
   <si>
-    <t>{272.0: 1.0, 203.0: 0.14952367803396382}</t>
+    <t>{272.0: 1.0, 203.0: 0.1488455195162177}</t>
   </si>
   <si>
     <t>{273.0: 1.0}</t>
@@ -577,7 +580,7 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9623828835127954}</t>
+    <t>{277.0: 0.9623512946116165}</t>
   </si>
   <si>
     <t>{278.0: 1.0}</t>
@@ -592,7 +595,7 @@
     <t>{281.0: 1.0}</t>
   </si>
   <si>
-    <t>{282.0: 1.0, 182.0: 0.0009269988412514484}</t>
+    <t>{282.0: 1.0, 182.0: 0.0009306654257794323}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -655,7 +658,7 @@
     <t>{302.0: 1.0}</t>
   </si>
   <si>
-    <t>{303.0: 1.0, 144.0: 0.00101154851218073}</t>
+    <t>{303.0: 1.0, 144.0: 0.0010072183985227463}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
@@ -673,7 +676,7 @@
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 426.0: 0.03955197759887994}</t>
+    <t>{309.0: 1.0, 426.0: 0.039725786605730354}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
@@ -694,7 +697,7 @@
     <t>{316.0: 1.0}</t>
   </si>
   <si>
-    <t>{317.0: 1.0, 71.0: 0.009153884215734785}</t>
+    <t>{317.0: 1.0, 71.0: 0.008835820895522388}</t>
   </si>
   <si>
     <t>{318.0: 1.0}</t>
@@ -703,10 +706,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{398.0: 1.0, 98.0: 0.5530451246449984}</t>
+    <t>{398.0: 1.0, 98.0: 0.5482700369142214}</t>
   </si>
   <si>
     <t>{399.0: 1.0}</t>
@@ -724,7 +724,7 @@
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.9970808246670315}</t>
+    <t>{404.0: 0.9970443349753695}</t>
   </si>
   <si>
     <t>{405.0: 1.0}</t>
@@ -754,7 +754,7 @@
     <t>{414.0: 1.0}</t>
   </si>
   <si>
-    <t>{415.0: 1.0, 277.0: 0.03761711648720459}</t>
+    <t>{415.0: 1.0, 277.0: 0.03764870538838348}</t>
   </si>
   <si>
     <t>{416.0: 1.0}</t>
@@ -778,13 +778,13 @@
     <t>{423.0: 1.0}</t>
   </si>
   <si>
-    <t>{424.0: 1.0, 585.0: 0.012401653553807174}</t>
+    <t>{424.0: 1.0, 585.0: 0.012528627239660514}</t>
   </si>
   <si>
     <t>{425.0: 1.0}</t>
   </si>
   <si>
-    <t>{426.0: 0.96044802240112}</t>
+    <t>{426.0: 0.9602742133942697}</t>
   </si>
   <si>
     <t>{428.0: 0.9962857389651896}</t>
@@ -877,16 +877,16 @@
     <t>{488.0: 1.0}</t>
   </si>
   <si>
-    <t>{489.0: 1.0, 935.0: 0.005207010414020828}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9503030195239726}</t>
+    <t>{489.0: 1.0, 935.0: 0.005155287312963662}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9501259727898774}</t>
   </si>
   <si>
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.9919282511210762}</t>
+    <t>{492.0: 0.9919747081712063}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -907,19 +907,19 @@
     <t>{498.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.9598576230966976}</t>
-  </si>
-  <si>
-    <t>{500.0: 0.9171511627906976}</t>
+    <t>{499.0: 0.9608410493827161}</t>
+  </si>
+  <si>
+    <t>{500.0: 0.9184549356223176}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 0.9933613631334366}</t>
-  </si>
-  <si>
-    <t>{503.0: 0.9985324947589098}</t>
+    <t>{502.0: 0.9933818663136995}</t>
+  </si>
+  <si>
+    <t>{503.0: 0.9985256950294861}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -955,7 +955,7 @@
     <t>{535.0: 1.0}</t>
   </si>
   <si>
-    <t>{536.0: 0.5244740231859167}</t>
+    <t>{536.0: 0.5216757544674189}</t>
   </si>
   <si>
     <t>{537.0: 1.0}</t>
@@ -973,7 +973,7 @@
     <t>{542.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.9989074023490849}</t>
+    <t>{543.0: 0.998852388466504}</t>
   </si>
   <si>
     <t>{544.0: 1.0}</t>
@@ -1042,7 +1042,7 @@
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.9875983464461928}</t>
+    <t>{585.0: 0.9874713727603395}</t>
   </si>
   <si>
     <t>{586.0: 1.0}</t>
@@ -1066,7 +1066,7 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.9978094329854772, 686.0: 0.009832174944905916}</t>
+    <t>{593.0: 0.9978100587089659, 686.0: 0.009728279100972828}</t>
   </si>
   <si>
     <t>{595.0: 1.0}</t>
@@ -1075,7 +1075,7 @@
     <t>{596.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.9973904244554508}</t>
+    <t>{597.0: 0.9973572083490643}</t>
   </si>
   <si>
     <t>{598.0: 1.0}</t>
@@ -1102,7 +1102,7 @@
     <t>{605.0: 1.0}</t>
   </si>
   <si>
-    <t>{606.0: 0.9985494106980961}</t>
+    <t>{606.0: 0.9985660512636674}</t>
   </si>
   <si>
     <t>{607.0: 1.0}</t>
@@ -1129,7 +1129,7 @@
     <t>{614.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.9872775882732553}</t>
+    <t>{615.0: 0.9874499818115678}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1138,10 +1138,10 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{618.0: 1.0, 246.0: 0.0009399758291929637, 789.0: 0.0048678056695618975}</t>
-  </si>
-  <si>
-    <t>{619.0: 1.0, 861.0: 0.015839714675338297}</t>
+    <t>{618.0: 1.0, 246.0: 0.0009455626097528029, 789.0: 0.004867341095628937}</t>
+  </si>
+  <si>
+    <t>{619.0: 1.0, 861.0: 0.015856347789562113}</t>
   </si>
   <si>
     <t>{620.0: 1.0}</t>
@@ -1153,7 +1153,7 @@
     <t>{622.0: 1.0}</t>
   </si>
   <si>
-    <t>{623.0: 0.9992374561537288}</t>
+    <t>{623.0: 0.9992354740061162}</t>
   </si>
   <si>
     <t>{624.0: 1.0}</t>
@@ -1186,7 +1186,7 @@
     <t>{633.0: 1.0}</t>
   </si>
   <si>
-    <t>{634.0: 0.8069981583793738}</t>
+    <t>{634.0: 0.8128571428571428}</t>
   </si>
   <si>
     <t>{635.0: 1.0}</t>
@@ -1219,7 +1219,7 @@
     <t>{685.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.990167825055094}</t>
+    <t>{686.0: 0.9902717208990272}</t>
   </si>
   <si>
     <t>{687.0: 1.0}</t>
@@ -1246,10 +1246,10 @@
     <t>{694.0: 1.0}</t>
   </si>
   <si>
-    <t>{695.0: 1.0, 857.0: 0.0024748871742611735}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9970840758140288, 492.0: 0.008048212271144628}</t>
+    <t>{695.0: 1.0, 857.0: 0.0024741667879493523}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9970049916805325, 492.0: 0.008001256013000382}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
@@ -1264,7 +1264,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.8134970424807313}</t>
+    <t>{702.0: 0.8133632286995516}</t>
   </si>
   <si>
     <t>{703.0: 1.0}</t>
@@ -1309,7 +1309,7 @@
     <t>{736.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 1.0, 223.0: 0.019194756554307114, 428.0: 0.0037142610348103997}</t>
+    <t>{737.0: 1.0, 223.0: 0.01906090190609019, 428.0: 0.0037142610348103997}</t>
   </si>
   <si>
     <t>{738.0: 1.0}</t>
@@ -1423,7 +1423,7 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9994031988541417, 171.0: 0.024579001223833486, 184.0: 0.0020208824520040417, 593.0: 0.0012388417450701654}</t>
+    <t>{778.0: 0.9994188749418875, 171.0: 0.024204170916226394, 184.0: 0.0020373514431239388, 593.0: 0.001238503929458281}</t>
   </si>
   <si>
     <t>{779.0: 1.0}</t>
@@ -1435,7 +1435,7 @@
     <t>{781.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 1.0, 168.0: 0.001507017048130357, 930.0: 0.0002368261518505378}</t>
+    <t>{782.0: 1.0, 168.0: 0.0015194681861348527, 930.0: 0.00024171035642861895}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
@@ -1450,13 +1450,13 @@
     <t>{786.0: 1.0}</t>
   </si>
   <si>
-    <t>{787.0: 1.0, 500.0: 0.08284883720930232}</t>
+    <t>{787.0: 1.0, 500.0: 0.0815450643776824}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.9951321943304381}</t>
+    <t>{789.0: 0.9951326589043711}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
@@ -1471,13 +1471,13 @@
     <t>{834.0: 1.0}</t>
   </si>
   <si>
-    <t>{835.0: 0.9951693718708581, 836.0: 0.01623484783609078}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9837651521639091, 835.0: 0.0048306281291418725}</t>
-  </si>
-  <si>
-    <t>{837.0: 1.0, 536.0: 0.4755259768140833}</t>
+    <t>{835.0: 0.9949819321325729, 836.0: 0.015424630556912554}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9845753694430874, 835.0: 0.005018067867427023}</t>
+  </si>
+  <si>
+    <t>{837.0: 1.0, 536.0: 0.4783242455325811}</t>
   </si>
   <si>
     <t>{838.0: 1.0}</t>
@@ -1525,10 +1525,10 @@
     <t>{852.0: 1.0}</t>
   </si>
   <si>
-    <t>{853.0: 1.0, 202.0: 0.005286555328607473, 680.0: 0.002957121734844751}</t>
-  </si>
-  <si>
-    <t>{854.0: 1.0, 976.0: 0.0017019959771004177}</t>
+    <t>{853.0: 1.0, 202.0: 0.005282112845138055, 680.0: 0.002957121734844751}</t>
+  </si>
+  <si>
+    <t>{854.0: 1.0, 976.0: 0.0015838732901367891}</t>
   </si>
   <si>
     <t>{855.0: 1.0}</t>
@@ -1537,7 +1537,7 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.9975251128257389}</t>
+    <t>{857.0: 0.9975258332120507}</t>
   </si>
   <si>
     <t>{858.0: 1.0}</t>
@@ -1549,7 +1549,7 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.9841602853246617, 490.0: 0.04730928444707274}</t>
+    <t>{861.0: 0.9841436522104379, 490.0: 0.04747774480712166}</t>
   </si>
   <si>
     <t>{862.0: 1.0}</t>
@@ -1582,7 +1582,7 @@
     <t>{892.0: 1.0}</t>
   </si>
   <si>
-    <t>{893.0: 0.9978947368421053}</t>
+    <t>{893.0: 0.9977452085682075}</t>
   </si>
   <si>
     <t>{894.0: 1.0}</t>
@@ -1597,7 +1597,7 @@
     <t>{897.0: 1.0}</t>
   </si>
   <si>
-    <t>{905.0: 1.0, 499.0: 0.04014237690330235}</t>
+    <t>{905.0: 1.0, 499.0: 0.03915895061728395}</t>
   </si>
   <si>
     <t>{906.0: 1.0}</t>
@@ -1627,7 +1627,7 @@
     <t>{916.0: 1.0}</t>
   </si>
   <si>
-    <t>{917.0: 0.9479068796325295}</t>
+    <t>{917.0: 0.9475344338134791}</t>
   </si>
   <si>
     <t>{918.0: 1.0}</t>
@@ -1663,10 +1663,10 @@
     <t>{928.0: 1.0}</t>
   </si>
   <si>
-    <t>{929.0: 1.0, 930.0: 0.35772747618134154}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.6420356976668079}</t>
+    <t>{929.0: 1.0, 930.0: 0.364474412847324}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.6352838767962473}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -1675,13 +1675,13 @@
     <t>{932.0: 1.0}</t>
   </si>
   <si>
-    <t>{933.0: 1.0, 249.0: 0.09421646692390045}</t>
+    <t>{933.0: 1.0, 249.0: 0.09502178943540394}</t>
   </si>
   <si>
     <t>{934.0: 1.0}</t>
   </si>
   <si>
-    <t>{935.0: 0.9947929895859792}</t>
+    <t>{935.0: 0.9948447126870363}</t>
   </si>
   <si>
     <t>{936.0: 1.0}</t>
@@ -1705,7 +1705,7 @@
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 1.0, 634.0: 0.19300184162062614}</t>
+    <t>{943.0: 1.0, 634.0: 0.18714285714285714}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
@@ -1714,7 +1714,7 @@
     <t>{971.0: 1.0}</t>
   </si>
   <si>
-    <t>{972.0: 1.0, 615.0: 0.012722411726744723}</t>
+    <t>{972.0: 1.0, 615.0: 0.012550018188432157}</t>
   </si>
   <si>
     <t>{973.0: 1.0}</t>
@@ -1726,7 +1726,7 @@
     <t>{975.0: 1.0}</t>
   </si>
   <si>
-    <t>{976.0: 0.9982980040228996}</t>
+    <t>{976.0: 0.9984161267098632}</t>
   </si>
   <si>
     <t>{977.0: 1.0}</t>
@@ -1756,7 +1756,7 @@
     <t>{992.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.991925064599483, 178.0: 0.0006459948320413437, 623.0: 0.0016149870801033589, 696.0: 0.005721431161519681, 492.0: 9.252232685240912e-05}</t>
+    <t>{14.0: 0.9919302775984508, 178.0: 0.0006455777921239509, 623.0: 0.0016139444803098776, 696.0: 0.005717900736820557, 492.0: 9.229939229500004e-05}</t>
   </si>
   <si>
     <t>{44.0: 1.0}</t>
@@ -1765,19 +1765,19 @@
     <t>{71.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 0.8852873563218391, 917.0: 0.11471264367816092}</t>
-  </si>
-  <si>
-    <t>{77.0: 0.9994776704100288, 85.0: 0.0005223295899712719}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.9985303723056825, 172.0: 0.0014696276943174395}</t>
+    <t>{75.0: 0.8878903617164682, 917.0: 0.11210963828353179}</t>
+  </si>
+  <si>
+    <t>{77.0: 0.9994692848613507, 85.0: 0.0005307151386493299}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.9985291714332408, 172.0: 0.0014708285667592743}</t>
   </si>
   <si>
     <t>{85.0: 1.0}</t>
   </si>
   <si>
-    <t>{91.0: 0.9998846584588138, 92.0: 0.00011534154118623194}</t>
+    <t>{91.0: 0.9998846584588138, 92.0: 0.00011534154118623196}</t>
   </si>
   <si>
     <t>{92.0: 1.0}</t>
@@ -1786,19 +1786,19 @@
     <t>{98.0: 1.0}</t>
   </si>
   <si>
-    <t>{104.0: 0.8253337120136325, 92.0: 0.17466628798636752}</t>
-  </si>
-  <si>
-    <t>{107.0: 0.9991815856777495, 543.0: 0.0008184143222506394}</t>
-  </si>
-  <si>
-    <t>{142.0: 0.9847917376007264, 44.0: 0.015208262399273635}</t>
+    <t>{104.0: 0.8344103392568659, 92.0: 0.16558966074313408}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.9991869092387436, 543.0: 0.0008130907612562253}</t>
+  </si>
+  <si>
+    <t>{142.0: 0.9847119224187108, 44.0: 0.015288077581289219}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
   </si>
   <si>
-    <t>{166.0: 0.9992304732589458, 893.0: 0.0007695267410542517}</t>
+    <t>{166.0: 0.9992208804051422, 893.0: 0.0007791195948578107}</t>
   </si>
   <si>
     <t>{168.0: 1.0}</t>
@@ -1810,7 +1810,7 @@
     <t>{172.0: 1.0}</t>
   </si>
   <si>
-    <t>{173.0: 0.9936051159072742, 404.0: 0.006394884092725819}</t>
+    <t>{173.0: 0.9936119244077721, 404.0: 0.006388075592227841}</t>
   </si>
   <si>
     <t>{174.0: 0.9852869053457577, 502.0: 0.014713094654242276}</t>
@@ -1822,10 +1822,10 @@
     <t>{182.0: 1.0}</t>
   </si>
   <si>
-    <t>{183.0: 0.9962354551676933, 182.0: 0.0037645448323066393}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.9874456491334586, 171.0: 0.007472928889210899, 593.0: 0.0033967858587322275, 778.0: 0.0016846361185983828}</t>
+    <t>{183.0: 0.9964005235602094, 182.0: 0.003599476439790576}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9874023973491761, 171.0: 0.00749322274635456, 593.0: 0.003406010339252073, 778.0: 0.0016983695652173913}</t>
   </si>
   <si>
     <t>{202.0: 1.0}</t>
@@ -1837,7 +1837,7 @@
     <t>{265.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 0.9910496338486575, 490.0: 0.0032546786004882017, 503.0: 0.005695687550854353}</t>
+    <t>{222.0: 0.9910277324632951, 490.0: 0.003262642740619902, 503.0: 0.005709624796084829}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
@@ -1861,16 +1861,16 @@
     <t>{277.0: 1.0}</t>
   </si>
   <si>
-    <t>{282.0: 0.996816553919618, 182.0: 0.003183446080382013}</t>
-  </si>
-  <si>
-    <t>{303.0: 0.9976967370441459, 144.0: 0.0023032629558541267}</t>
-  </si>
-  <si>
-    <t>{309.0: 0.9267779037745019, 426.0: 0.07322209622549813}</t>
-  </si>
-  <si>
-    <t>{317.0: 0.9822371579452712, 71.0: 0.017762842054728757}</t>
+    <t>{282.0: 0.9967186218211649, 182.0: 0.003281378178835111}</t>
+  </si>
+  <si>
+    <t>{303.0: 0.9976869699306091, 144.0: 0.002313030069390902}</t>
+  </si>
+  <si>
+    <t>{309.0: 0.9290646578782172, 426.0: 0.0709353421217828}</t>
+  </si>
+  <si>
+    <t>{317.0: 0.982051903953432, 71.0: 0.017948096046568034}</t>
   </si>
   <si>
     <t>{398.0: 0.5643116392383036, 98.0: 0.4356883607616966}</t>
@@ -1879,10 +1879,10 @@
     <t>{404.0: 1.0}</t>
   </si>
   <si>
-    <t>{415.0: 0.8731132075471698, 277.0: 0.1268867924528302}</t>
-  </si>
-  <si>
-    <t>{424.0: 0.9520371325425477, 585.0: 0.0479628674574523}</t>
+    <t>{415.0: 0.8729333963155409, 277.0: 0.12706660368445913}</t>
+  </si>
+  <si>
+    <t>{424.0: 0.9521112255406797, 585.0: 0.047888774459320285}</t>
   </si>
   <si>
     <t>{426.0: 1.0}</t>
@@ -1891,7 +1891,7 @@
     <t>{428.0: 1.0}</t>
   </si>
   <si>
-    <t>{489.0: 0.9916936790923824, 935.0: 0.008306320907617504}</t>
+    <t>{489.0: 0.991730536506656, 935.0: 0.00826946349334409}</t>
   </si>
   <si>
     <t>{490.0: 1.0}</t>
@@ -1900,7 +1900,7 @@
     <t>{492.0: 1.0}</t>
   </si>
   <si>
-    <t>{497.0: 0.8601619027150942, 321.0: 0.1398380972849058}</t>
+    <t>{497.0: 0.8695187165775399, 321.0: 0.1304812834224599}</t>
   </si>
   <si>
     <t>{499.0: 1.0}</t>
@@ -1924,7 +1924,7 @@
     <t>{585.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.9945545019247019, 686.0: 0.005445498075298094}</t>
+    <t>{593.0: 0.99456419868791, 686.0: 0.005435801312089972}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
@@ -1939,7 +1939,7 @@
     <t>{618.0: 0.9843454790823212, 246.0: 0.0018893387314439945, 789.0: 0.013765182186234818}</t>
   </si>
   <si>
-    <t>{619.0: 0.9785175700668658, 861.0: 0.021482429933134158}</t>
+    <t>{619.0: 0.978456270509345, 861.0: 0.021543729490654872}</t>
   </si>
   <si>
     <t>{623.0: 1.0}</t>
@@ -1954,34 +1954,34 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{695.0: 0.9938114306516199, 857.0: 0.006188569348380051}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9840861597813856, 492.0: 0.01591384021861437}</t>
+    <t>{695.0: 0.9937865497076025, 857.0: 0.0062134502923976605}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9841142490372271, 492.0: 0.015885750962772786}</t>
   </si>
   <si>
     <t>{702.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 0.926637554585153, 223.0: 0.03580786026200873, 428.0: 0.03755458515283843}</t>
-  </si>
-  <si>
-    <t>{778.0: 0.9784971368470254, 171.0: 0.019287707518498832, 184.0: 0.0006935458287982003, 593.0: 0.001521609805677143}</t>
-  </si>
-  <si>
-    <t>{782.0: 0.9974744701877677, 168.0: 0.001756890304161634, 930.0: 0.0007686395080707148}</t>
-  </si>
-  <si>
-    <t>{787.0: 0.8357348703170028, 500.0: 0.1642651296829971}</t>
+    <t>{737.0: 0.9279588336192109, 223.0: 0.03516295025728988, 428.0: 0.03687821612349914}</t>
+  </si>
+  <si>
+    <t>{778.0: 0.9790504383468064, 171.0: 0.018791419312757702, 184.0: 0.0006756795339838953, 593.0: 0.0014824628064520752}</t>
+  </si>
+  <si>
+    <t>{782.0: 0.9974866134848651, 168.0: 0.001748442793137362, 930.0: 0.0007649437219975958}</t>
+  </si>
+  <si>
+    <t>{787.0: 0.8360891445003593, 500.0: 0.16391085549964055}</t>
   </si>
   <si>
     <t>{789.0: 1.0}</t>
   </si>
   <si>
-    <t>{835.0: 0.9904058244467708, 836.0: 0.009594175553229308}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9918426103646834, 835.0: 0.008157389635316698}</t>
+    <t>{835.0: 0.9900669157761305, 836.0: 0.009933084223869345}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9922515952597994, 835.0: 0.007748404740200546}</t>
   </si>
   <si>
     <t>{837.0: 0.872876492194674, 536.0: 0.127123507805326}</t>
@@ -1990,13 +1990,13 @@
     <t>{853.0: 0.9992733086258266, 202.0: 0.000639488409272582, 680.0: 8.720296490080663e-05}</t>
   </si>
   <si>
-    <t>{854.0: 0.9973455598455598, 976.0: 0.0026544401544401543}</t>
+    <t>{854.0: 0.9973352713178295, 976.0: 0.0026647286821705426}</t>
   </si>
   <si>
     <t>{857.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.9915451278799408, 490.0: 0.008454872120059184}</t>
+    <t>{861.0: 0.991536182818451, 490.0: 0.008463817181548879}</t>
   </si>
   <si>
     <t>{893.0: 1.0}</t>
@@ -2008,22 +2008,22 @@
     <t>{917.0: 1.0}</t>
   </si>
   <si>
-    <t>{929.0: 0.8347584658780441, 930.0: 0.1652415341219559}</t>
+    <t>{929.0: 0.8356613057207902, 930.0: 0.1643386942792098}</t>
   </si>
   <si>
     <t>{930.0: 1.0}</t>
   </si>
   <si>
-    <t>{933.0: 0.8788491693144441, 249.0: 0.12115083068555589}</t>
+    <t>{933.0: 0.8793518814625307, 249.0: 0.12064811853746935}</t>
   </si>
   <si>
     <t>{935.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.9131443726172718, 634.0: 0.08685562738272833}</t>
-  </si>
-  <si>
-    <t>{972.0: 0.9541375872382851, 615.0: 0.045862412761714856}</t>
+    <t>{943.0: 0.9149350649350649, 634.0: 0.08506493506493507}</t>
+  </si>
+  <si>
+    <t>{972.0: 0.9537688442211055, 615.0: 0.04623115577889446}</t>
   </si>
   <si>
     <t>{976.0: 1.0}</t>
@@ -4086,7 +4086,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -4108,29 +4108,29 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>611</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>159</v>
+        <v>611</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4141,29 +4141,29 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>612</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>162</v>
+        <v>612</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4174,7 +4174,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4185,7 +4185,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4196,7 +4196,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4218,7 +4218,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4229,7 +4229,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4240,7 +4240,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4251,7 +4251,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4273,7 +4273,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4317,29 +4317,29 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>606</v>
+        <v>177</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>178</v>
+        <v>606</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4350,7 +4350,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4372,29 +4372,29 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>613</v>
+        <v>182</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>183</v>
+        <v>613</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4405,7 +4405,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4416,7 +4416,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4427,29 +4427,29 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>614</v>
+        <v>187</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>188</v>
+        <v>614</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4460,7 +4460,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4482,29 +4482,29 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>615</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>193</v>
+        <v>615</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4515,7 +4515,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4526,7 +4526,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4548,7 +4548,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4570,7 +4570,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4581,7 +4581,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4603,7 +4603,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4625,7 +4625,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4636,7 +4636,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4658,7 +4658,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4669,7 +4669,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4680,7 +4680,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4691,7 +4691,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4702,7 +4702,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4713,29 +4713,29 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>616</v>
+        <v>213</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>214</v>
+        <v>616</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4757,7 +4757,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -4768,7 +4768,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -4779,29 +4779,29 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>617</v>
+        <v>219</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>220</v>
+        <v>617</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4812,7 +4812,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -4834,7 +4834,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
@@ -4845,7 +4845,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -4856,29 +4856,29 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>618</v>
+        <v>226</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>227</v>
+        <v>618</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
@@ -4889,7 +4889,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B228" t="s">
         <v>229</v>
